--- a/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - Anaphylactic shock.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - Anaphylactic shock.xlsx
@@ -173,793 +173,808 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>742136</t>
+  </si>
+  <si>
+    <t>anaphylaxis</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>61766349</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>51552305</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>57446710</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>531360</t>
+  </si>
+  <si>
+    <t>cis-resveratrol</t>
+  </si>
+  <si>
+    <t>17345039</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>16319254</t>
+  </si>
+  <si>
+    <t>353563</t>
+  </si>
+  <si>
+    <t>srt 501</t>
+  </si>
+  <si>
+    <t>17345038</t>
+  </si>
+  <si>
+    <t>16319253</t>
+  </si>
+  <si>
+    <t>3358228</t>
+  </si>
+  <si>
+    <t>trans-resveratrol</t>
+  </si>
+  <si>
+    <t>17345046</t>
+  </si>
+  <si>
+    <t>16319257</t>
+  </si>
+  <si>
+    <t>3192067</t>
+  </si>
+  <si>
+    <t>resveratrol-3-sulfate</t>
+  </si>
+  <si>
+    <t>17345045</t>
+  </si>
+  <si>
+    <t>16319256</t>
+  </si>
+  <si>
+    <t>275252</t>
+  </si>
+  <si>
+    <t>resveratrol</t>
+  </si>
+  <si>
+    <t>17345042</t>
+  </si>
+  <si>
+    <t>16319255</t>
+  </si>
+  <si>
+    <t>110406</t>
+  </si>
+  <si>
+    <t>curcumin</t>
+  </si>
+  <si>
+    <t>19611655</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>17241552</t>
+  </si>
+  <si>
+    <t>72672624</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>21629049</t>
+  </si>
+  <si>
+    <t>63538550</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>53133477</t>
+  </si>
+  <si>
+    <t>51815441</t>
+  </si>
+  <si>
+    <t>908841</t>
+  </si>
+  <si>
+    <t>ttr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>17953440</t>
+  </si>
+  <si>
+    <t>19923843</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>19728841</t>
+  </si>
+  <si>
+    <t>binds with</t>
+  </si>
+  <si>
+    <t>112958359</t>
+  </si>
+  <si>
+    <t>2791081</t>
+  </si>
+  <si>
+    <t>ptgs2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23774831</t>
+  </si>
+  <si>
+    <t>28160996</t>
+  </si>
+  <si>
+    <t>ortholog is associated with</t>
+  </si>
+  <si>
+    <t>28160994</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>649130</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>21934281</t>
+  </si>
+  <si>
+    <t>57827290</t>
+  </si>
+  <si>
+    <t>53092509</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>4041439</t>
+  </si>
+  <si>
+    <t>dopamine</t>
+  </si>
+  <si>
+    <t>20779128</t>
+  </si>
+  <si>
+    <t>51660510</t>
+  </si>
+  <si>
+    <t>60398868</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>837296</t>
+  </si>
+  <si>
+    <t>cardiac arrhythmia</t>
+  </si>
+  <si>
+    <t>16509806</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>56967978</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>40108515</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>16511122</t>
+  </si>
+  <si>
+    <t>16511094</t>
+  </si>
+  <si>
+    <t>82680341</t>
+  </si>
+  <si>
+    <t>40108862</t>
+  </si>
+  <si>
+    <t>5011221</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>16513754</t>
+  </si>
+  <si>
+    <t>40108484</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>16513502</t>
+  </si>
+  <si>
+    <t>40108820</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>16509526</t>
+  </si>
+  <si>
+    <t>40108715</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>16513138</t>
+  </si>
+  <si>
+    <t>51597523</t>
+  </si>
+  <si>
+    <t>40108942</t>
+  </si>
+  <si>
+    <t>2788166</t>
+  </si>
+  <si>
+    <t>agt (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17003177</t>
+  </si>
+  <si>
+    <t>28398752</t>
+  </si>
+  <si>
+    <t>gene product variant causes</t>
+  </si>
+  <si>
+    <t>2051366</t>
+  </si>
+  <si>
+    <t>acute kidney injury</t>
+  </si>
+  <si>
+    <t>16509599</t>
+  </si>
+  <si>
+    <t>40109050</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>52186077</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>53855626</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>53305189</t>
+  </si>
+  <si>
+    <t>86218751</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>52336018</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>60747671</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>131092359</t>
+  </si>
+  <si>
+    <t>52306239</t>
+  </si>
+  <si>
+    <t>5698926</t>
+  </si>
+  <si>
+    <t>tachycardia</t>
+  </si>
+  <si>
+    <t>16513636</t>
+  </si>
+  <si>
+    <t>65155945</t>
+  </si>
+  <si>
+    <t>559349</t>
+  </si>
+  <si>
+    <t>adverse reaction to drug</t>
+  </si>
+  <si>
+    <t>16510714</t>
+  </si>
+  <si>
+    <t>96489263</t>
+  </si>
+  <si>
+    <t>81675919</t>
+  </si>
+  <si>
+    <t>432075</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>16509638</t>
+  </si>
+  <si>
+    <t>40108951</t>
+  </si>
+  <si>
+    <t>89193860</t>
+  </si>
+  <si>
+    <t>4048900</t>
+  </si>
+  <si>
+    <t>kidney diseases</t>
+  </si>
+  <si>
+    <t>16512298</t>
+  </si>
+  <si>
+    <t>84366202</t>
+  </si>
+  <si>
+    <t>4048543</t>
+  </si>
+  <si>
+    <t>hemoglobinuria</t>
+  </si>
+  <si>
+    <t>16510982</t>
+  </si>
+  <si>
+    <t>86128492</t>
+  </si>
+  <si>
+    <t>4028736</t>
+  </si>
+  <si>
+    <t>necrosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>16512830</t>
+  </si>
+  <si>
+    <t>51808217</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>368721</t>
+  </si>
+  <si>
+    <t>atrial fibrillation</t>
+  </si>
+  <si>
+    <t>16509834</t>
+  </si>
+  <si>
+    <t>111473558</t>
+  </si>
+  <si>
+    <t>363448</t>
+  </si>
+  <si>
+    <t>liver failure, acute</t>
+  </si>
+  <si>
+    <t>16512382</t>
+  </si>
+  <si>
+    <t>69857988</t>
+  </si>
+  <si>
+    <t>220950</t>
+  </si>
+  <si>
+    <t>kidney failure, acute</t>
+  </si>
+  <si>
+    <t>16509600</t>
+  </si>
+  <si>
+    <t>122302310</t>
+  </si>
+  <si>
+    <t>111450175</t>
+  </si>
+  <si>
+    <t>112461776</t>
+  </si>
+  <si>
+    <t>3784358</t>
+  </si>
+  <si>
+    <t>replacement therapy</t>
+  </si>
+  <si>
+    <t>53036396</t>
+  </si>
+  <si>
+    <t>110821584</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>69247051</t>
+  </si>
+  <si>
+    <t>103185505</t>
+  </si>
+  <si>
+    <t>52081720</t>
+  </si>
+  <si>
+    <t>51405737</t>
+  </si>
+  <si>
+    <t>51778207</t>
+  </si>
+  <si>
+    <t>63691017</t>
+  </si>
+  <si>
+    <t>68154577</t>
+  </si>
+  <si>
+    <t>96745865</t>
+  </si>
+  <si>
+    <t>4034863</t>
+  </si>
+  <si>
+    <t>equus caballus</t>
+  </si>
+  <si>
+    <t>88743885</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>88763683</t>
+  </si>
+  <si>
+    <t>52521088</t>
+  </si>
+  <si>
+    <t>3043633</t>
+  </si>
+  <si>
+    <t>transplant recipients</t>
+  </si>
+  <si>
+    <t>130508721</t>
+  </si>
+  <si>
+    <t>61716854</t>
+  </si>
+  <si>
+    <t>117428480</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>837059</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>96180395</t>
+  </si>
+  <si>
+    <t>73642154</t>
+  </si>
+  <si>
+    <t>52880666</t>
+  </si>
+  <si>
+    <t>65859767</t>
+  </si>
+  <si>
+    <t>75910878</t>
+  </si>
+  <si>
+    <t>53225257</t>
+  </si>
+  <si>
+    <t>40226598</t>
+  </si>
+  <si>
+    <t>60939804</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>84658809</t>
+  </si>
+  <si>
+    <t>70750769</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>63999065</t>
+  </si>
+  <si>
+    <t>51372686</t>
+  </si>
+  <si>
+    <t>4746651</t>
+  </si>
+  <si>
+    <t>physicians</t>
+  </si>
+  <si>
+    <t>116224839</t>
+  </si>
+  <si>
+    <t>52483658</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>52810744</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>51381471</t>
+  </si>
+  <si>
+    <t>54364020</t>
+  </si>
+  <si>
+    <t>52757557</t>
+  </si>
+  <si>
+    <t>103556259</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>51659045</t>
+  </si>
+  <si>
+    <t>57104011</t>
+  </si>
+  <si>
+    <t>61202367</t>
+  </si>
+  <si>
+    <t>51315373</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>123035272</t>
+  </si>
+  <si>
+    <t>53497339</t>
+  </si>
+  <si>
+    <t>109596525</t>
+  </si>
+  <si>
+    <t>52056704</t>
+  </si>
+  <si>
+    <t>73600529</t>
+  </si>
+  <si>
+    <t>94915784</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>76470242</t>
+  </si>
+  <si>
+    <t>60395640</t>
+  </si>
+  <si>
+    <t>71407490</t>
+  </si>
+  <si>
+    <t>51310354</t>
+  </si>
+  <si>
+    <t>836817</t>
+  </si>
+  <si>
+    <t>insulin (homo sapiens)</t>
+  </si>
+  <si>
+    <t>120730700</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>61962042</t>
+  </si>
+  <si>
+    <t>61961973</t>
+  </si>
+  <si>
+    <t>88610210</t>
+  </si>
+  <si>
+    <t>53951924</t>
+  </si>
+  <si>
+    <t>118521308</t>
+  </si>
+  <si>
+    <t>836219</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>120729725</t>
+  </si>
+  <si>
+    <t>88747127</t>
+  </si>
+  <si>
+    <t>84382567</t>
+  </si>
+  <si>
     <t>5647992</t>
   </si>
   <si>
     <t>cavia</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>742136</t>
-  </si>
-  <si>
-    <t>anaphylaxis</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>128178084</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>117533447</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>140424872</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>128178168</t>
-  </si>
-  <si>
-    <t>117624586</t>
-  </si>
-  <si>
-    <t>123829800</t>
-  </si>
-  <si>
-    <t>531360</t>
-  </si>
-  <si>
-    <t>cis-resveratrol</t>
-  </si>
-  <si>
-    <t>83853499</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>82568333</t>
-  </si>
-  <si>
-    <t>353563</t>
-  </si>
-  <si>
-    <t>srt 501</t>
-  </si>
-  <si>
-    <t>83853496</t>
-  </si>
-  <si>
-    <t>82568332</t>
-  </si>
-  <si>
-    <t>3358228</t>
-  </si>
-  <si>
-    <t>trans-resveratrol</t>
-  </si>
-  <si>
-    <t>83853509</t>
-  </si>
-  <si>
-    <t>82568336</t>
-  </si>
-  <si>
-    <t>3192067</t>
-  </si>
-  <si>
-    <t>resveratrol-3-sulfate</t>
-  </si>
-  <si>
-    <t>83853505</t>
-  </si>
-  <si>
-    <t>82568335</t>
-  </si>
-  <si>
-    <t>275252</t>
-  </si>
-  <si>
-    <t>resveratrol</t>
-  </si>
-  <si>
-    <t>83853502</t>
-  </si>
-  <si>
-    <t>82568334</t>
-  </si>
-  <si>
-    <t>110406</t>
-  </si>
-  <si>
-    <t>curcumin</t>
-  </si>
-  <si>
-    <t>84082768</t>
-  </si>
-  <si>
-    <t>85112956</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>139119044</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>137167810</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>151041589</t>
-  </si>
-  <si>
-    <t>117580321</t>
-  </si>
-  <si>
-    <t>130390725</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>87450070</t>
-  </si>
-  <si>
-    <t>129937408</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>135683482</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>169371132</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>118338948</t>
-  </si>
-  <si>
-    <t>130090770</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>117621097</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117970739</t>
-  </si>
-  <si>
-    <t>162950489</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>134507364</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>119399990</t>
-  </si>
-  <si>
-    <t>118052127</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>120196476</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>118402157</t>
-  </si>
-  <si>
-    <t>118584524</t>
-  </si>
-  <si>
-    <t>150718883</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>127170385</t>
-  </si>
-  <si>
-    <t>118603085</t>
-  </si>
-  <si>
-    <t>119622551</t>
-  </si>
-  <si>
-    <t>197294382</t>
-  </si>
-  <si>
-    <t>2791081</t>
-  </si>
-  <si>
-    <t>ptgs2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>89725499</t>
-  </si>
-  <si>
-    <t>94530918</t>
-  </si>
-  <si>
-    <t>ortholog is associated with</t>
-  </si>
-  <si>
-    <t>94530917</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>649130</t>
-  </si>
-  <si>
-    <t>zinc</t>
-  </si>
-  <si>
-    <t>87194219</t>
-  </si>
-  <si>
-    <t>119357642</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>124236075</t>
-  </si>
-  <si>
-    <t>4041439</t>
-  </si>
-  <si>
-    <t>dopamine</t>
-  </si>
-  <si>
-    <t>85605694</t>
-  </si>
-  <si>
-    <t>117885119</t>
-  </si>
-  <si>
-    <t>126798134</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>119021160</t>
-  </si>
-  <si>
-    <t>120707955</t>
-  </si>
-  <si>
-    <t>117574291</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117705434</t>
-  </si>
-  <si>
-    <t>169774350</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>127605470</t>
-  </si>
-  <si>
-    <t>117514542</t>
-  </si>
-  <si>
-    <t>123527626</t>
-  </si>
-  <si>
-    <t>5011221</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>82762067</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>106296922</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>82761815</t>
-  </si>
-  <si>
-    <t>106297303</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>82757839</t>
-  </si>
-  <si>
-    <t>106297194</t>
-  </si>
-  <si>
-    <t>2788166</t>
-  </si>
-  <si>
-    <t>agt (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86485342</t>
-  </si>
-  <si>
-    <t>94771889</t>
-  </si>
-  <si>
-    <t>gene product variant causes</t>
-  </si>
-  <si>
-    <t>2051366</t>
-  </si>
-  <si>
-    <t>acute kidney injury</t>
-  </si>
-  <si>
-    <t>82757912</t>
-  </si>
-  <si>
-    <t>106297539</t>
-  </si>
-  <si>
-    <t>837296</t>
-  </si>
-  <si>
-    <t>cardiac arrhythmia</t>
-  </si>
-  <si>
-    <t>82758119</t>
-  </si>
-  <si>
-    <t>106296961</t>
-  </si>
-  <si>
-    <t>123369953</t>
-  </si>
-  <si>
-    <t>5698926</t>
-  </si>
-  <si>
-    <t>tachycardia</t>
-  </si>
-  <si>
-    <t>82761949</t>
-  </si>
-  <si>
-    <t>131503953</t>
-  </si>
-  <si>
-    <t>559349</t>
-  </si>
-  <si>
-    <t>adverse reaction to drug</t>
-  </si>
-  <si>
-    <t>82759027</t>
-  </si>
-  <si>
-    <t>148094792</t>
-  </si>
-  <si>
-    <t>162679616</t>
-  </si>
-  <si>
-    <t>908841</t>
-  </si>
-  <si>
-    <t>ttr (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83997954</t>
-  </si>
-  <si>
-    <t>84916945</t>
-  </si>
-  <si>
-    <t>84609330</t>
-  </si>
-  <si>
-    <t>binds with</t>
-  </si>
-  <si>
-    <t>179178022</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>82759435</t>
-  </si>
-  <si>
-    <t>82759407</t>
-  </si>
-  <si>
-    <t>106297342</t>
-  </si>
-  <si>
-    <t>149099690</t>
-  </si>
-  <si>
-    <t>432075</t>
-  </si>
-  <si>
-    <t>anemia</t>
-  </si>
-  <si>
-    <t>82757951</t>
-  </si>
-  <si>
-    <t>106297433</t>
-  </si>
-  <si>
-    <t>155423830</t>
-  </si>
-  <si>
-    <t>4048900</t>
-  </si>
-  <si>
-    <t>kidney diseases</t>
-  </si>
-  <si>
-    <t>82760611</t>
-  </si>
-  <si>
-    <t>150746233</t>
-  </si>
-  <si>
-    <t>4048543</t>
-  </si>
-  <si>
-    <t>hemoglobinuria</t>
-  </si>
-  <si>
-    <t>82759295</t>
-  </si>
-  <si>
-    <t>152603191</t>
-  </si>
-  <si>
-    <t>4028736</t>
-  </si>
-  <si>
-    <t>necrosis</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>82761143</t>
-  </si>
-  <si>
-    <t>118044812</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>368721</t>
-  </si>
-  <si>
-    <t>atrial fibrillation</t>
-  </si>
-  <si>
-    <t>82758147</t>
-  </si>
-  <si>
-    <t>177598182</t>
-  </si>
-  <si>
-    <t>363448</t>
-  </si>
-  <si>
-    <t>liver failure, acute</t>
-  </si>
-  <si>
-    <t>82760695</t>
-  </si>
-  <si>
-    <t>136355737</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>82761451</t>
-  </si>
-  <si>
-    <t>117808168</t>
-  </si>
-  <si>
-    <t>106297421</t>
-  </si>
-  <si>
-    <t>220950</t>
-  </si>
-  <si>
-    <t>kidney failure, acute</t>
-  </si>
-  <si>
-    <t>82757913</t>
-  </si>
-  <si>
-    <t>177622405</t>
-  </si>
-  <si>
-    <t>178659710</t>
-  </si>
-  <si>
-    <t>188493393</t>
-  </si>
-  <si>
-    <t>3784358</t>
-  </si>
-  <si>
-    <t>replacement therapy</t>
-  </si>
-  <si>
-    <t>119349686</t>
-  </si>
-  <si>
-    <t>176998045</t>
-  </si>
-  <si>
-    <t>4746651</t>
-  </si>
-  <si>
-    <t>physicians</t>
-  </si>
-  <si>
-    <t>182447731</t>
-  </si>
-  <si>
-    <t>119106818</t>
-  </si>
-  <si>
-    <t>118774244</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>189180350</t>
-  </si>
-  <si>
-    <t>140040961</t>
-  </si>
-  <si>
-    <t>161144516</t>
-  </si>
-  <si>
-    <t>175783405</t>
-  </si>
-  <si>
-    <t>119789456</t>
-  </si>
-  <si>
-    <t>118280313</t>
-  </si>
-  <si>
-    <t>4034863</t>
-  </si>
-  <si>
-    <t>equus caballus</t>
-  </si>
-  <si>
-    <t>154941370</t>
-  </si>
-  <si>
-    <t>154920292</t>
-  </si>
-  <si>
-    <t>118751581</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>142855634</t>
-  </si>
-  <si>
-    <t>117508523</t>
-  </si>
-  <si>
-    <t>126795234</t>
-  </si>
-  <si>
-    <t>135251920</t>
-  </si>
-  <si>
-    <t>837059</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>162411636</t>
-  </si>
-  <si>
-    <t>119520987</t>
-  </si>
-  <si>
-    <t>132241785</t>
-  </si>
-  <si>
-    <t>140029799</t>
-  </si>
-  <si>
-    <t>106413374</t>
-  </si>
-  <si>
-    <t>142302531</t>
-  </si>
-  <si>
-    <t>127349336</t>
-  </si>
-  <si>
-    <t>119162353</t>
-  </si>
-  <si>
-    <t>836817</t>
-  </si>
-  <si>
-    <t>insulin (homo sapiens)</t>
-  </si>
-  <si>
-    <t>186946169</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>120269355</t>
-  </si>
-  <si>
-    <t>184739567</t>
-  </si>
-  <si>
-    <t>128363728</t>
-  </si>
-  <si>
-    <t>154879872</t>
-  </si>
-  <si>
-    <t>128363766</t>
-  </si>
-  <si>
-    <t>836219</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>186945374</t>
-  </si>
-  <si>
-    <t>154923788</t>
-  </si>
-  <si>
-    <t>150763835</t>
+    <t>61766253</t>
+  </si>
+  <si>
+    <t>74100465</t>
+  </si>
+  <si>
+    <t>51340351</t>
   </si>
   <si>
     <t>4734434</t>
@@ -968,19 +983,19 @@
     <t>thyroid hormones</t>
   </si>
   <si>
-    <t>154900044</t>
-  </si>
-  <si>
-    <t>181327137</t>
-  </si>
-  <si>
-    <t>181606846</t>
-  </si>
-  <si>
-    <t>196996063</t>
-  </si>
-  <si>
-    <t>143244252</t>
+    <t>115125096</t>
+  </si>
+  <si>
+    <t>88724316</t>
+  </si>
+  <si>
+    <t>115476792</t>
+  </si>
+  <si>
+    <t>76807906</t>
+  </si>
+  <si>
+    <t>130806697</t>
   </si>
   <si>
     <t>4041003</t>
@@ -989,10 +1004,10 @@
     <t>fatty acids</t>
   </si>
   <si>
-    <t>156632304</t>
-  </si>
-  <si>
-    <t>151561826</t>
+    <t>90397882</t>
+  </si>
+  <si>
+    <t>87068462</t>
   </si>
   <si>
     <t>4040861</t>
@@ -1001,31 +1016,16 @@
     <t>complication</t>
   </si>
   <si>
-    <t>177432442</t>
-  </si>
-  <si>
-    <t>184372170</t>
-  </si>
-  <si>
-    <t>123264764</t>
-  </si>
-  <si>
-    <t>119849630</t>
-  </si>
-  <si>
-    <t>3043633</t>
-  </si>
-  <si>
-    <t>transplant recipients</t>
-  </si>
-  <si>
-    <t>196727765</t>
-  </si>
-  <si>
-    <t>128114277</t>
-  </si>
-  <si>
-    <t>183634102</t>
+    <t>111222386</t>
+  </si>
+  <si>
+    <t>118178561</t>
+  </si>
+  <si>
+    <t>53497705</t>
+  </si>
+  <si>
+    <t>56889374</t>
   </si>
   <si>
     <t>2442077</t>
@@ -1034,10 +1034,22 @@
     <t>cardiac event</t>
   </si>
   <si>
-    <t>119023405</t>
-  </si>
-  <si>
-    <t>183250819</t>
+    <t>52759289</t>
+  </si>
+  <si>
+    <t>117028501</t>
+  </si>
+  <si>
+    <t>242247</t>
+  </si>
+  <si>
+    <t>deglutition disorders</t>
+  </si>
+  <si>
+    <t>124145103</t>
+  </si>
+  <si>
+    <t>51619258</t>
   </si>
   <si>
     <t>2391869</t>
@@ -1046,13 +1058,13 @@
     <t>chronic idiopathic urticaria</t>
   </si>
   <si>
-    <t>161439952</t>
-  </si>
-  <si>
-    <t>161439350</t>
-  </si>
-  <si>
-    <t>132924839</t>
+    <t>95252935</t>
+  </si>
+  <si>
+    <t>95252332</t>
+  </si>
+  <si>
+    <t>66567175</t>
   </si>
   <si>
     <t>223879</t>
@@ -1061,28 +1073,16 @@
     <t>dietary supplementation</t>
   </si>
   <si>
-    <t>122559337</t>
-  </si>
-  <si>
-    <t>135146427</t>
-  </si>
-  <si>
-    <t>175162491</t>
-  </si>
-  <si>
-    <t>135146466</t>
-  </si>
-  <si>
-    <t>242247</t>
-  </si>
-  <si>
-    <t>deglutition disorders</t>
-  </si>
-  <si>
-    <t>190335518</t>
-  </si>
-  <si>
-    <t>117833413</t>
+    <t>56148189</t>
+  </si>
+  <si>
+    <t>68749450</t>
+  </si>
+  <si>
+    <t>68749431</t>
+  </si>
+  <si>
+    <t>108938046</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>309.0</v>
+        <v>212.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>212.0</v>
+        <v>192.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1355,7 +1355,7 @@
         <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1370,19 +1370,13 @@
         <v>67</v>
       </c>
       <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1420,10 +1414,10 @@
         <v>72</v>
       </c>
       <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
         <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>60</v>
@@ -1443,31 +1437,31 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
         <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>78</v>
       </c>
       <c r="N5" t="s">
         <v>60</v>
@@ -1487,31 +1481,31 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
         <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>82</v>
       </c>
       <c r="N6" t="s">
         <v>60</v>
@@ -1531,31 +1525,31 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
@@ -1563,7 +1557,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>192.0</v>
+        <v>117.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1575,39 +1569,45 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
         <v>87</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>73</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>117.0</v>
+        <v>69.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1619,10 +1619,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -1637,27 +1637,21 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101.0</v>
+        <v>57.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1690,30 +1684,18 @@
         <v>100</v>
       </c>
       <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
         <v>101</v>
       </c>
-      <c r="M10" t="s">
-        <v>102</v>
-      </c>
       <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1725,39 +1707,51 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>109</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>110</v>
+      </c>
+      <c r="R11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63.0</v>
+        <v>41.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1775,7 +1769,7 @@
         <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1790,54 +1784,24 @@
         <v>113</v>
       </c>
       <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
         <v>114</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>115</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>116</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>117</v>
-      </c>
-      <c r="P12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" t="s">
-        <v>120</v>
-      </c>
-      <c r="T12" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" t="s">
-        <v>122</v>
-      </c>
-      <c r="V12" t="s">
-        <v>110</v>
-      </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1849,13 +1813,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1867,21 +1831,27 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1893,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1911,57 +1881,27 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="M14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" t="s">
-        <v>140</v>
-      </c>
-      <c r="T14" t="s">
-        <v>119</v>
-      </c>
-      <c r="U14" t="s">
-        <v>141</v>
-      </c>
-      <c r="V14" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" t="s">
-        <v>142</v>
-      </c>
-      <c r="X14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1973,13 +1913,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -1991,27 +1931,27 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2023,13 +1963,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2041,27 +1981,33 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2073,13 +2019,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2091,27 +2037,21 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O17" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2123,13 +2063,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2141,52 +2081,16 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>169</v>
-      </c>
-      <c r="R18" t="s">
-        <v>105</v>
-      </c>
-      <c r="S18" t="s">
-        <v>170</v>
-      </c>
-      <c r="T18" t="s">
-        <v>171</v>
-      </c>
-      <c r="U18" t="s">
-        <v>172</v>
-      </c>
-      <c r="V18" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" t="s">
-        <v>173</v>
-      </c>
-      <c r="X18" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -2203,10 +2107,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
         <v>58</v>
@@ -2221,16 +2125,16 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -2247,10 +2151,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>58</v>
@@ -2265,16 +2169,22 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>97</v>
+      </c>
+      <c r="O20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21">
@@ -2291,13 +2201,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -2309,16 +2219,16 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2335,13 +2245,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -2353,21 +2263,21 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2379,13 +2289,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2397,16 +2307,52 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>178</v>
+      </c>
+      <c r="R23" t="s">
+        <v>179</v>
+      </c>
+      <c r="S23" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" t="s">
+        <v>182</v>
+      </c>
+      <c r="V23" t="s">
+        <v>183</v>
+      </c>
+      <c r="W23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z23" t="s">
         <v>60</v>
-      </c>
-      <c r="M23" t="s">
-        <v>197</v>
-      </c>
-      <c r="N23" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -2423,10 +2369,10 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
         <v>58</v>
@@ -2441,27 +2387,21 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
-      </c>
-      <c r="O24" t="s">
-        <v>202</v>
-      </c>
-      <c r="P24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2473,10 +2413,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
         <v>58</v>
@@ -2491,21 +2431,27 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="O25" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2517,10 +2463,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
@@ -2535,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="O26" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="P26" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -2567,13 +2513,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2585,28 +2531,16 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s">
-        <v>121</v>
-      </c>
-      <c r="O27" t="s">
-        <v>216</v>
-      </c>
-      <c r="P27" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>218</v>
-      </c>
-      <c r="R27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -2623,10 +2557,10 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
         <v>58</v>
@@ -2641,28 +2575,16 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
-      </c>
-      <c r="O28" t="s">
-        <v>223</v>
-      </c>
-      <c r="P28" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>224</v>
-      </c>
-      <c r="R28" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -2679,13 +2601,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2697,22 +2619,16 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s">
-        <v>180</v>
-      </c>
-      <c r="O29" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
@@ -2729,10 +2645,10 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -2747,16 +2663,16 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="N30" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -2773,10 +2689,10 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
         <v>58</v>
@@ -2791,16 +2707,16 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -2817,13 +2733,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -2835,21 +2751,33 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>243</v>
+        <v>135</v>
+      </c>
+      <c r="O32" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>227</v>
+      </c>
+      <c r="R32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2861,13 +2789,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -2879,21 +2807,21 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -2905,13 +2833,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -2923,21 +2851,57 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
+        <v>174</v>
+      </c>
+      <c r="O34" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>237</v>
+      </c>
+      <c r="R34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" t="s">
+        <v>238</v>
+      </c>
+      <c r="T34" t="s">
+        <v>97</v>
+      </c>
+      <c r="U34" t="s">
+        <v>239</v>
+      </c>
+      <c r="V34" t="s">
+        <v>183</v>
+      </c>
+      <c r="W34" t="s">
+        <v>240</v>
+      </c>
+      <c r="X34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -2949,13 +2913,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -2967,27 +2931,27 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="O35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -2999,13 +2963,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3017,33 +2981,27 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
         <v>60</v>
       </c>
       <c r="M36" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O36" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>262</v>
-      </c>
-      <c r="R36" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -3055,39 +3013,75 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" t="s">
+        <v>257</v>
+      </c>
+      <c r="N37" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>259</v>
+      </c>
+      <c r="R37" t="s">
+        <v>135</v>
+      </c>
+      <c r="S37" t="s">
+        <v>260</v>
+      </c>
+      <c r="T37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U37" t="s">
+        <v>261</v>
+      </c>
+      <c r="V37" t="s">
+        <v>135</v>
+      </c>
+      <c r="W37" t="s">
+        <v>262</v>
+      </c>
+      <c r="X37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y37" t="s">
         <v>263</v>
       </c>
-      <c r="F37" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" t="s">
-        <v>266</v>
-      </c>
-      <c r="N37" t="s">
-        <v>119</v>
+      <c r="Z37" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3099,10 +3093,10 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
         <v>55</v>
@@ -3117,27 +3111,33 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" t="s">
+        <v>267</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
         <v>269</v>
       </c>
-      <c r="L38" t="s">
-        <v>101</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q38" t="s">
         <v>270</v>
       </c>
-      <c r="N38" t="s">
+      <c r="R38" t="s">
         <v>62</v>
-      </c>
-      <c r="O38" t="s">
-        <v>271</v>
-      </c>
-      <c r="P38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3149,63 +3149,45 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
         <v>273</v>
       </c>
-      <c r="F39" t="s">
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="s">
         <v>274</v>
       </c>
-      <c r="G39" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="N39" t="s">
         <v>275</v>
       </c>
-      <c r="L39" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="O39" t="s">
         <v>276</v>
       </c>
-      <c r="N39" t="s">
-        <v>119</v>
-      </c>
-      <c r="O39" t="s">
-        <v>277</v>
-      </c>
       <c r="P39" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>278</v>
-      </c>
-      <c r="R39" t="s">
-        <v>126</v>
-      </c>
-      <c r="S39" t="s">
-        <v>279</v>
-      </c>
-      <c r="T39" t="s">
-        <v>60</v>
-      </c>
-      <c r="U39" t="s">
-        <v>280</v>
-      </c>
-      <c r="V39" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -3217,10 +3199,10 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3235,27 +3217,57 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>245</v>
+      </c>
+      <c r="M40" t="s">
+        <v>280</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>282</v>
+      </c>
+      <c r="R40" t="s">
         <v>283</v>
       </c>
-      <c r="L40" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="S40" t="s">
         <v>284</v>
       </c>
-      <c r="N40" t="s">
-        <v>168</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="T40" t="s">
+        <v>253</v>
+      </c>
+      <c r="U40" t="s">
         <v>285</v>
       </c>
-      <c r="P40" t="s">
+      <c r="V40" t="s">
+        <v>107</v>
+      </c>
+      <c r="W40" t="s">
+        <v>286</v>
+      </c>
+      <c r="X40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -3267,13 +3279,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3285,33 +3297,45 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s">
+        <v>174</v>
+      </c>
+      <c r="M41" t="s">
+        <v>291</v>
+      </c>
+      <c r="N41" t="s">
         <v>60</v>
       </c>
-      <c r="M41" t="s">
-        <v>289</v>
-      </c>
-      <c r="N41" t="s">
-        <v>116</v>
-      </c>
       <c r="O41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P41" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="Q41" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R41" t="s">
-        <v>180</v>
+        <v>107</v>
+      </c>
+      <c r="S41" t="s">
+        <v>294</v>
+      </c>
+      <c r="T41" t="s">
+        <v>183</v>
+      </c>
+      <c r="U41" t="s">
+        <v>295</v>
+      </c>
+      <c r="V41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -3323,10 +3347,10 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -3341,52 +3365,28 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N42" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="O42" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P42" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q42" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="R42" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" t="s">
-        <v>298</v>
-      </c>
-      <c r="T42" t="s">
-        <v>180</v>
-      </c>
-      <c r="U42" t="s">
-        <v>299</v>
-      </c>
-      <c r="V42" t="s">
-        <v>180</v>
-      </c>
-      <c r="W42" t="s">
-        <v>300</v>
-      </c>
-      <c r="X42" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
@@ -3430,31 +3430,31 @@
         <v>306</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O43" t="s">
         <v>307</v>
       </c>
       <c r="P43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q43" t="s">
         <v>308</v>
       </c>
       <c r="R43" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="S43" t="s">
         <v>309</v>
       </c>
       <c r="T43" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="U43" t="s">
         <v>310</v>
       </c>
       <c r="V43" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
@@ -3504,7 +3504,7 @@
         <v>315</v>
       </c>
       <c r="P44" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -3527,7 +3527,7 @@
         <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -3542,31 +3542,19 @@
         <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="M45" t="s">
         <v>319</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="O45" t="s">
         <v>320</v>
       </c>
       <c r="P45" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>321</v>
-      </c>
-      <c r="R45" t="s">
-        <v>156</v>
-      </c>
-      <c r="S45" t="s">
-        <v>322</v>
-      </c>
-      <c r="T45" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -3583,34 +3571,52 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" t="s">
         <v>323</v>
       </c>
-      <c r="F46" t="s">
+      <c r="L46" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46" t="s">
         <v>324</v>
       </c>
-      <c r="G46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
+        <v>305</v>
+      </c>
+      <c r="O46" t="s">
         <v>325</v>
       </c>
-      <c r="L46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q46" t="s">
         <v>326</v>
       </c>
-      <c r="N46" t="s">
-        <v>124</v>
+      <c r="R46" t="s">
+        <v>92</v>
+      </c>
+      <c r="S46" t="s">
+        <v>327</v>
+      </c>
+      <c r="T46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -3627,13 +3633,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -3645,28 +3651,16 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O47" t="s">
-        <v>331</v>
-      </c>
-      <c r="P47" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>332</v>
-      </c>
-      <c r="R47" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -3683,40 +3677,46 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" t="s">
         <v>333</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" t="s">
         <v>334</v>
       </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
+        <v>181</v>
+      </c>
+      <c r="M48" t="s">
         <v>335</v>
       </c>
-      <c r="L48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" t="s">
         <v>336</v>
       </c>
-      <c r="N48" t="s">
-        <v>62</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q48" t="s">
         <v>337</v>
       </c>
-      <c r="P48" t="s">
-        <v>105</v>
+      <c r="R48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49">
@@ -3754,13 +3754,13 @@
         <v>340</v>
       </c>
       <c r="L49" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="M49" t="s">
         <v>341</v>
       </c>
       <c r="N49" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
@@ -3798,19 +3798,13 @@
         <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
         <v>345</v>
       </c>
       <c r="N50" t="s">
-        <v>60</v>
-      </c>
-      <c r="O50" t="s">
-        <v>346</v>
-      </c>
-      <c r="P50" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
@@ -3827,51 +3821,45 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F51" t="s">
         <v>347</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" t="s">
         <v>348</v>
       </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M51" t="s">
         <v>349</v>
       </c>
-      <c r="L51" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
+        <v>60</v>
+      </c>
+      <c r="O51" t="s">
         <v>350</v>
       </c>
-      <c r="N51" t="s">
-        <v>121</v>
-      </c>
-      <c r="O51" t="s">
-        <v>351</v>
-      </c>
       <c r="P51" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>352</v>
-      </c>
-      <c r="R51" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -3883,34 +3871,46 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" t="s">
         <v>353</v>
       </c>
-      <c r="F52" t="s">
+      <c r="L52" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" t="s">
         <v>354</v>
       </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" t="s">
-        <v>57</v>
-      </c>
-      <c r="J52" t="s">
-        <v>58</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="N52" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" t="s">
         <v>355</v>
       </c>
-      <c r="L52" t="s">
-        <v>60</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q52" t="s">
         <v>356</v>
       </c>
-      <c r="N52" t="s">
-        <v>114</v>
+      <c r="R52" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
